--- a/code/speed/speedup.xlsx
+++ b/code/speed/speedup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fw\Desktop\代码\chinese_snn_review\code\speed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1D26F1-4909-46D2-96E6-544E57F2D62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB62F0C7-427D-45B7-8D63-1966D6656F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +110,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -130,9 +140,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -417,13 +434,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27:R32"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,7 +493,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>8</v>
       </c>
@@ -520,7 +537,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>8</v>
       </c>
@@ -572,7 +589,7 @@
       </c>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>8</v>
       </c>
@@ -626,7 +643,7 @@
       </c>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>8</v>
       </c>
@@ -685,7 +702,7 @@
         <v>1.4721347670011073</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>8</v>
       </c>
@@ -744,7 +761,7 @@
         <v>1.0669295278420448</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>8</v>
       </c>
@@ -803,334 +820,340 @@
         <v>1.0061323117620709</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>12</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>2</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>1.4371815063059299</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>0.65400699805468299</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>1.3978450074791899</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>7.0828064754605196</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="K8" s="1">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="2">
         <v>12</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="2">
         <v>2</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="4">
         <f t="shared" si="0"/>
         <v>2.1975017248756776</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="4">
         <f t="shared" si="2"/>
         <v>1.02814081576732</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="4">
         <f t="shared" si="1"/>
         <v>0.20291130518464226</v>
       </c>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>12</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>4</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>3.0172274988144601</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>0.74044350162148398</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <v>2.0341619960963699</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>17.376830592751499</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="4">
         <v>7.87152199447155</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="K9" s="1">
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="2">
         <v>12</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="2">
         <v>4</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="4">
         <f t="shared" si="0"/>
         <v>4.0748922668739578</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="4">
         <f t="shared" si="2"/>
         <v>1.483277882786439</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="4">
         <f t="shared" si="1"/>
         <v>0.17363508740616107</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="4">
         <f>C9/G9</f>
         <v>0.38330928897023553</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="4">
         <f>C9/G9</f>
         <v>0.38330928897023553</v>
       </c>
-      <c r="R9" s="1"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>12</v>
       </c>
-      <c r="B10" s="1">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4">
         <v>4.7932020165026099</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>0.70429700426757302</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>1.76090850681066</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="4">
         <v>32.180185765028</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="4">
         <v>16.338288068771298</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="4">
         <v>8.03843002021312</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="K10" s="1">
+      <c r="I10" s="4"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="2">
         <v>12</v>
       </c>
-      <c r="L10" s="1">
-        <v>8</v>
-      </c>
-      <c r="M10" s="1">
+      <c r="L10" s="2">
+        <v>8</v>
+      </c>
+      <c r="M10" s="4">
         <f t="shared" si="0"/>
         <v>6.8056544149115821</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="4">
         <f t="shared" si="2"/>
         <v>2.722005145618843</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="4">
         <f t="shared" si="1"/>
         <v>0.14894886100103405</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="4">
         <f>C10/G10</f>
         <v>0.29337235310866183</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="4">
         <f>C10/G10</f>
         <v>0.29337235310866183</v>
       </c>
-      <c r="R10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>12</v>
       </c>
-      <c r="B11" s="1">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11" s="2">
+        <v>16</v>
+      </c>
+      <c r="C11" s="4">
         <v>9.4770805686712194</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>0.75200250092893794</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <v>1.53069550171494</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
         <v>42.899515897035599</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="4">
         <v>32.477346062660203</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="4">
         <v>17.057914994657001</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="4">
         <v>7.3660389706492397</v>
       </c>
-      <c r="K11" s="1">
+      <c r="J11" s="3"/>
+      <c r="K11" s="2">
         <v>12</v>
       </c>
-      <c r="L11" s="1">
-        <v>16</v>
-      </c>
-      <c r="M11" s="1">
+      <c r="L11" s="2">
+        <v>16</v>
+      </c>
+      <c r="M11" s="4">
         <f t="shared" si="0"/>
         <v>12.602458844171817</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="4">
         <f t="shared" si="2"/>
         <v>6.1913558627783356</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="4">
         <f t="shared" si="1"/>
         <v>0.22091346185391558</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="4">
         <f>C11/G11</f>
         <v>0.29180588064020391</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="4">
         <f>C11/G11</f>
         <v>0.29180588064020391</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="4">
         <f>C11/I11</f>
         <v>1.2865911525086478</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>12</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>32</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>17.1430880278348</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>0.96527600008994296</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="4">
         <v>1.0322695067152301</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="4">
         <v>67.665532052516895</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="4">
         <v>42.993810415267902</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="4">
         <v>28.897887468337998</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="4">
         <v>16.898969531059201</v>
       </c>
-      <c r="K12" s="1">
+      <c r="J12" s="3"/>
+      <c r="K12" s="2">
         <v>12</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="2">
         <v>32</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="4">
         <f t="shared" si="0"/>
         <v>17.759778577564791</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="4">
         <f t="shared" si="2"/>
         <v>16.607182442485946</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="4">
         <f t="shared" si="1"/>
         <v>0.25335037659246695</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="4">
         <f>C12/G12</f>
         <v>0.3987338610430996</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="4">
         <f>C12/G12</f>
         <v>0.3987338610430996</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="4">
         <f>C12/I12</f>
         <v>1.014445762289051</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>64</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>30.595814943313599</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>0.69932499993592501</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="4">
         <v>2.0636845007538702</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="4">
         <v>125.980835318565</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="4">
         <v>68.746884524822207</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="4">
         <v>42.404608964920001</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="4">
         <v>31.157161995768501</v>
       </c>
-      <c r="K13" s="1">
+      <c r="J13" s="3"/>
+      <c r="K13" s="2">
         <v>12</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="2">
         <v>64</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="4">
         <f t="shared" si="0"/>
         <v>43.750495043244428</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13" s="4">
         <f t="shared" si="2"/>
         <v>14.825819999198934</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="4">
         <f t="shared" si="1"/>
         <v>0.24286086741643384</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="4">
         <f>C13/G13</f>
         <v>0.44505020343527668</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="4">
         <f>C13/G13</f>
         <v>0.44505020343527668</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="4">
         <f>C13/I13</f>
         <v>0.98198337022700788</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>16</v>
       </c>
@@ -1174,7 +1197,7 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>16</v>
       </c>
@@ -1226,7 +1249,7 @@
       </c>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -1280,7 +1303,7 @@
       </c>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1339,7 +1362,7 @@
         <v>1.0998209193705535</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1398,7 +1421,7 @@
         <v>0.9868206787187217</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1457,7 +1480,7 @@
         <v>0.87520379887064181</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -1480,7 +1503,7 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>8</v>
       </c>
@@ -1524,7 +1547,7 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>8</v>
       </c>
@@ -1576,7 +1599,7 @@
       </c>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>8</v>
       </c>
@@ -1630,7 +1653,7 @@
       </c>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>8</v>
       </c>
@@ -1689,7 +1712,7 @@
         <v>0.33346626662365547</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>8</v>
       </c>
@@ -1748,7 +1771,7 @@
         <v>0.2687191854334311</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>8</v>
       </c>
@@ -1807,7 +1830,7 @@
         <v>0.25177829702939653</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>12</v>
       </c>
@@ -1851,7 +1874,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>12</v>
       </c>
@@ -1903,7 +1926,7 @@
       </c>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>12</v>
       </c>
@@ -1957,7 +1980,7 @@
       </c>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>12</v>
       </c>
@@ -2016,7 +2039,7 @@
         <v>0.3154508697316375</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>12</v>
       </c>
@@ -2075,7 +2098,7 @@
         <v>0.27874884978838621</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>12</v>
       </c>
@@ -2134,7 +2157,7 @@
         <v>0.25047674479561</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>16</v>
       </c>
@@ -2178,7 +2201,7 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>16</v>
       </c>
@@ -2230,7 +2253,7 @@
       </c>
       <c r="R34" s="1"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>16</v>
       </c>
@@ -2284,7 +2307,7 @@
       </c>
       <c r="R35" s="1"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>16</v>
       </c>
@@ -2343,7 +2366,7 @@
         <v>0.2390486630203327</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>16</v>
       </c>
@@ -2402,7 +2425,7 @@
         <v>0.20487057889362065</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>16</v>
       </c>
